--- a/Extension Docente/Archivos de Salida/LIQID 45- FEBRERO DEF/CALCULOS NUEVO FORMATO.xlsx
+++ b/Extension Docente/Archivos de Salida/LIQID 45- FEBRERO DEF/CALCULOS NUEVO FORMATO.xlsx
@@ -330,28 +330,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -409,237 +399,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -940,22 +699,22 @@
       <c r="F7" s="1"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="E9" s="23" t="s">
+      <c r="C9" s="24"/>
+      <c r="E9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="H9" s="23" t="s">
+      <c r="F9" s="24"/>
+      <c r="H9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="K9" s="23" t="s">
+      <c r="I9" s="24"/>
+      <c r="K9" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="23"/>
+      <c r="L9" s="24"/>
     </row>
     <row r="10" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
@@ -1143,10 +902,10 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="24"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="5:12" x14ac:dyDescent="0.25">
@@ -1216,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,34 +1031,34 @@
         <v>16</v>
       </c>
       <c r="B2" s="9">
-        <v>517606966.52999997</v>
+        <v>233794473.94</v>
       </c>
       <c r="C2" s="9">
-        <v>74933031.170000002</v>
+        <v>29803248.440000001</v>
       </c>
       <c r="D2" s="9">
-        <v>58446603.539999999</v>
+        <v>23242339.489999998</v>
       </c>
       <c r="E2" s="9">
-        <v>133379634.70999999</v>
+        <v>53045587.93</v>
       </c>
       <c r="F2" s="9">
-        <v>30569268.300000001</v>
+        <v>12175586.17</v>
       </c>
       <c r="G2" s="9">
-        <v>34481774.450000003</v>
+        <v>13712298.15</v>
       </c>
       <c r="H2" s="9">
-        <v>65051042.75</v>
+        <v>25887884.32</v>
       </c>
       <c r="I2" s="9">
-        <v>7272.84</v>
+        <v>2758.92</v>
       </c>
       <c r="J2" s="9">
-        <v>4848.5600000000004</v>
+        <v>1839.28</v>
       </c>
       <c r="K2" s="9">
-        <v>12121.4</v>
+        <v>4598.2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1307,34 +1066,34 @@
         <v>4</v>
       </c>
       <c r="B3" s="9">
-        <v>399317354.01999998</v>
+        <v>181507709.03999999</v>
       </c>
       <c r="C3" s="9">
-        <v>58052181.469999999</v>
+        <v>23303536.559999999</v>
       </c>
       <c r="D3" s="9">
-        <v>45258872.109999999</v>
+        <v>18164991.539999999</v>
       </c>
       <c r="E3" s="9">
-        <v>103311053.58</v>
+        <v>41468528.100000001</v>
       </c>
       <c r="F3" s="9">
-        <v>23850946.129999999</v>
+        <v>9582223.3300000001</v>
       </c>
       <c r="G3" s="9">
-        <v>26701401.199999999</v>
+        <v>10716811.98</v>
       </c>
       <c r="H3" s="9">
-        <v>50552347.329999998</v>
+        <v>20299035.309999999</v>
       </c>
       <c r="I3" s="9">
-        <v>7272.84</v>
+        <v>2758.92</v>
       </c>
       <c r="J3" s="9">
-        <v>4848.5600000000004</v>
+        <v>1839.28</v>
       </c>
       <c r="K3" s="9">
-        <v>12121.4</v>
+        <v>4598.2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1342,25 +1101,25 @@
         <v>5</v>
       </c>
       <c r="B4" s="9">
-        <v>118289612.51000001</v>
+        <v>52286764.899999999</v>
       </c>
       <c r="C4" s="9">
-        <v>16880849.699999999</v>
+        <v>6499711.8799999999</v>
       </c>
       <c r="D4" s="9">
-        <v>13187731.43</v>
+        <v>5077347.95</v>
       </c>
       <c r="E4" s="9">
-        <v>30068581.129999999</v>
+        <v>11577059.83</v>
       </c>
       <c r="F4" s="9">
-        <v>6718322.1699999999</v>
+        <v>2593362.84</v>
       </c>
       <c r="G4" s="9">
-        <v>7780373.25</v>
+        <v>2995486.17</v>
       </c>
       <c r="H4" s="9">
-        <v>14498695.42</v>
+        <v>5588849.0099999998</v>
       </c>
       <c r="I4" s="9">
         <v>0</v>
@@ -1373,43 +1132,43 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="str">
+      <c r="B5" s="23" t="str">
         <f>IF(B3+B4=B2,"CORRECTO","INCORRECTO")</f>
         <v>CORRECTO</v>
       </c>
-      <c r="C5" s="25" t="str">
+      <c r="C5" s="23" t="str">
         <f t="shared" ref="C5:K5" si="0">IF(C3+C4=C2,"CORRECTO","INCORRECTO")</f>
         <v>CORRECTO</v>
       </c>
-      <c r="D5" s="25" t="str">
+      <c r="D5" s="23" t="str">
         <f t="shared" si="0"/>
         <v>CORRECTO</v>
       </c>
-      <c r="E5" s="25" t="str">
+      <c r="E5" s="23" t="str">
         <f t="shared" si="0"/>
         <v>CORRECTO</v>
       </c>
-      <c r="F5" s="25" t="str">
+      <c r="F5" s="23" t="str">
         <f t="shared" si="0"/>
         <v>CORRECTO</v>
       </c>
-      <c r="G5" s="25" t="str">
+      <c r="G5" s="23" t="str">
         <f t="shared" si="0"/>
         <v>CORRECTO</v>
       </c>
-      <c r="H5" s="25" t="str">
+      <c r="H5" s="23" t="str">
         <f t="shared" si="0"/>
         <v>CORRECTO</v>
       </c>
-      <c r="I5" s="25" t="str">
+      <c r="I5" s="23" t="str">
         <f t="shared" si="0"/>
         <v>CORRECTO</v>
       </c>
-      <c r="J5" s="25" t="str">
+      <c r="J5" s="23" t="str">
         <f t="shared" si="0"/>
         <v>CORRECTO</v>
       </c>
-      <c r="K5" s="25" t="str">
+      <c r="K5" s="23" t="str">
         <f t="shared" si="0"/>
         <v>CORRECTO</v>
       </c>
@@ -1418,22 +1177,22 @@
       <c r="F7" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="E9" s="23" t="s">
+      <c r="C9" s="24"/>
+      <c r="E9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="H9" s="23" t="s">
+      <c r="F9" s="24"/>
+      <c r="H9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="K9" s="23" t="s">
+      <c r="I9" s="24"/>
+      <c r="K9" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="23"/>
+      <c r="L9" s="24"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
@@ -1447,79 +1206,79 @@
       </c>
       <c r="F10" s="14">
         <f>B2</f>
-        <v>517606966.52999997</v>
+        <v>233794473.94</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>1</v>
       </c>
       <c r="I10" s="17">
         <f>B3</f>
-        <v>399317354.01999998</v>
+        <v>181507709.03999999</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>1</v>
       </c>
       <c r="L10" s="22">
         <f>B4</f>
-        <v>118289612.51000001</v>
+        <v>52286764.899999999</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f>F10+F13+F16+F19</f>
-        <v>623116538.83999991</v>
+        <v>275776067.47000003</v>
       </c>
       <c r="C11" s="4">
-        <v>635465777.20000005</v>
+        <v>275776067.47000003</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="15">
         <f>E2</f>
-        <v>133379634.70999999</v>
+        <v>53045587.93</v>
       </c>
       <c r="H11" s="18" t="s">
         <v>0</v>
       </c>
       <c r="I11" s="19">
         <f>E3</f>
-        <v>103311053.58</v>
+        <v>41468528.100000001</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>0</v>
       </c>
       <c r="L11" s="15">
         <f>E4</f>
-        <v>30068581.129999999</v>
+        <v>11577059.83</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="24" t="str">
+      <c r="B12" s="25" t="str">
         <f>IF(B11=C11,"CORRECTO","INCORRECTO")</f>
-        <v>INCORRECTO</v>
-      </c>
-      <c r="C12" s="24"/>
+        <v>CORRECTO</v>
+      </c>
+      <c r="C12" s="25"/>
       <c r="E12" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="15">
         <f>D2</f>
-        <v>58446603.539999999</v>
+        <v>23242339.489999998</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>2</v>
       </c>
       <c r="I12" s="19">
         <f>H3</f>
-        <v>50552347.329999998</v>
+        <v>20299035.309999999</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>2</v>
       </c>
       <c r="L12" s="15">
         <f>H4</f>
-        <v>14498695.42</v>
+        <v>5588849.0099999998</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1528,14 +1287,14 @@
       </c>
       <c r="F13" s="15">
         <f>C2</f>
-        <v>74933031.170000002</v>
+        <v>29803248.440000001</v>
       </c>
       <c r="H13" s="20" t="s">
         <v>3</v>
       </c>
       <c r="I13" s="21">
         <f>K3</f>
-        <v>12121.4</v>
+        <v>4598.2</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>3</v>
@@ -1551,14 +1310,14 @@
       </c>
       <c r="C14" s="1">
         <f>C11-B11</f>
-        <v>12349238.360000134</v>
+        <v>0</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="15">
         <f>H2</f>
-        <v>65051042.75</v>
+        <v>25887884.32</v>
       </c>
       <c r="I14" s="2"/>
       <c r="L14" s="2"/>
@@ -1575,7 +1334,7 @@
       </c>
       <c r="F15" s="15">
         <f>G2</f>
-        <v>34481774.450000003</v>
+        <v>13712298.15</v>
       </c>
       <c r="L15" s="2"/>
     </row>
@@ -1585,14 +1344,14 @@
       </c>
       <c r="C16" s="1">
         <f>C14-C15</f>
-        <v>1.3411045074462891E-7</v>
+        <v>-12349238.359999999</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="15">
         <f>F2</f>
-        <v>30569268.300000001</v>
+        <v>12175586.17</v>
       </c>
       <c r="I16" s="2"/>
       <c r="L16" s="2"/>
@@ -1603,7 +1362,7 @@
       </c>
       <c r="F17" s="15">
         <f>K2</f>
-        <v>12121.4</v>
+        <v>4598.2</v>
       </c>
       <c r="I17" s="2"/>
       <c r="L17" s="2"/>
@@ -1614,7 +1373,7 @@
       </c>
       <c r="F18" s="15">
         <f>J2</f>
-        <v>4848.5600000000004</v>
+        <v>1839.28</v>
       </c>
       <c r="I18" s="2"/>
       <c r="L18" s="2"/>
@@ -1625,7 +1384,7 @@
       </c>
       <c r="F19" s="15">
         <f>I2</f>
-        <v>7272.84</v>
+        <v>2758.92</v>
       </c>
       <c r="I19" s="2"/>
       <c r="L19" s="2"/>
@@ -1635,10 +1394,10 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="23"/>
+      <c r="C21" s="24"/>
       <c r="F21" s="2"/>
       <c r="I21" s="1"/>
       <c r="J21" s="3" t="s">
@@ -1654,31 +1413,31 @@
       </c>
       <c r="F22" s="6">
         <f>F10+F11+F14+F17</f>
-        <v>716049765.38999999</v>
+        <v>312732544.38999999</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="6">
         <f>I10+I11+I12+I13+L10+L11+L12+L13</f>
-        <v>716049765.38999987</v>
+        <v>312732544.38999993</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <f>F10</f>
-        <v>517606966.52999997</v>
+        <v>233794473.94</v>
       </c>
       <c r="C23" s="4">
-        <v>517606966.52999997</v>
+        <v>233794473.94</v>
       </c>
       <c r="F23" s="2"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="24" t="str">
+      <c r="B24" s="25" t="str">
         <f>IF(B23=C23,"CORRECTO","INCORRECTO")</f>
         <v>CORRECTO</v>
       </c>
-      <c r="C24" s="24"/>
+      <c r="C24" s="25"/>
       <c r="F24" s="2"/>
       <c r="I24" s="1"/>
     </row>
@@ -1691,16 +1450,16 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="24"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F28" s="2">
         <f>I10</f>
-        <v>399317354.01999998</v>
+        <v>181507709.03999999</v>
       </c>
       <c r="H28" t="s">
         <v>9</v>
@@ -1710,41 +1469,41 @@
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F29" s="1">
         <f>L10</f>
-        <v>118289612.51000001</v>
+        <v>52286764.899999999</v>
       </c>
       <c r="H29" s="1">
         <f>SUM(F28:F31)</f>
-        <v>650986601.24000001</v>
+        <v>286840061.87</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F30" s="1">
         <f>I11</f>
-        <v>103311053.58</v>
+        <v>41468528.100000001</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F31" s="1">
         <f>L11</f>
-        <v>30068581.129999999</v>
+        <v>11577059.83</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F32" s="1">
-        <f>I12+I14</f>
-        <v>50552347.329999998</v>
+        <f>I12+I13</f>
+        <v>20303633.509999998</v>
       </c>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33" s="1">
         <f>L12+L13</f>
-        <v>14498695.42</v>
+        <v>5588849.0099999998</v>
       </c>
     </row>
     <row r="34" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F34" s="5">
         <f>SUM(F28:F33)</f>
-        <v>716037643.99000001</v>
+        <v>312732544.38999999</v>
       </c>
     </row>
   </sheetData>
@@ -1759,26 +1518,26 @@
     <mergeCell ref="B24:C24"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:K5">
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="CORRECTO">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="CORRECTO">
       <formula>NOT(ISERROR(SEARCH("CORRECTO",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="INCORRECTO">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="INCORRECTO">
       <formula>NOT(ISERROR(SEARCH("INCORRECTO",B5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C12">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="CORRECTO">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="CORRECTO">
       <formula>NOT(ISERROR(SEARCH("CORRECTO",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="INCORRECTO">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="INCORRECTO">
       <formula>NOT(ISERROR(SEARCH("INCORRECTO",B12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:C24">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="CORRECTO">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="CORRECTO">
       <formula>NOT(ISERROR(SEARCH("CORRECTO",B24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="INCORRECTO">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="INCORRECTO">
       <formula>NOT(ISERROR(SEARCH("INCORRECTO",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
